--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_15-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_15-56.xlsx
@@ -65,63 +65,60 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>BEBELAC EC MILK 400 GM</t>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>DIAMICRON MR 30 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:1</t>
-  </si>
-  <si>
-    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
-  </si>
-  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -264,12 +261,6 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-2:0</t>
   </si>
   <si>
     <t>محلول خليط</t>
@@ -1056,11 +1047,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1076,17 +1067,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.080000000000000002</v>
+        <v>-0.33000000000000002</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1094,7 +1085,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1102,17 +1093,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>-0.33000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1134,11 +1125,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1160,11 +1151,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1180,17 +1171,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>36</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1198,7 +1189,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1206,17 +1197,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>139.68000000000001</v>
+        <v>12</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1232,13 +1223,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>12</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1250,7 +1241,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1258,17 +1249,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>26.670000000000002</v>
+        <v>66</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1276,7 +1267,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1284,17 +1275,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.5</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1316,11 +1307,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>32</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.67000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1336,17 +1327,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>63.240000000000002</v>
+        <v>28</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1362,17 +1353,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>28</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1388,17 +1379,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>50.439999999999998</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1414,17 +1405,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1446,11 +1437,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>17</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1466,17 +1457,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>40.479999999999997</v>
+        <v>19</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>2</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1484,7 +1475,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1492,17 +1483,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1518,17 +1509,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1536,7 +1527,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1544,17 +1535,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1570,13 +1561,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1596,13 +1587,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1614,7 +1605,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1622,17 +1613,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1640,7 +1631,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1648,17 +1639,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1666,7 +1657,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1674,17 +1665,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1700,13 +1691,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
@@ -1726,13 +1717,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -1744,7 +1735,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1752,17 +1743,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1770,7 +1761,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1778,17 +1769,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1796,7 +1787,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1804,13 +1795,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>32</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -1830,13 +1821,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>73.599999999999994</v>
+        <v>180</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
@@ -1856,17 +1847,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>180</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1874,7 +1865,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1882,17 +1873,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>169.19999999999999</v>
+        <v>45</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1908,13 +1899,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -1934,13 +1925,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>62</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
@@ -1960,17 +1951,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>73.319999999999993</v>
+        <v>45.5</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1978,7 +1969,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1986,17 +1977,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>45.5</v>
+        <v>116</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2012,17 +2003,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2030,7 +2021,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2038,13 +2029,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2064,17 +2055,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2082,7 +2073,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2090,17 +2081,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2116,13 +2107,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
@@ -2142,13 +2133,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
@@ -2160,7 +2151,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2168,17 +2159,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2186,7 +2177,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2194,17 +2185,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2220,103 +2211,51 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="A57" s="6">
-        <v>54</v>
-      </c>
-      <c t="s" r="B57" s="7">
+    <row r="57" ht="26.25" customHeight="1">
+      <c r="K57" s="11">
+        <v>2848.0300000000002</v>
+      </c>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="12">
         <v>85</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c t="s" r="H57" s="8">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c t="s" r="F58" s="13">
         <v>86</v>
       </c>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9">
-        <v>30</v>
-      </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" ht="25.5" customHeight="1">
-      <c r="A58" s="6">
-        <v>55</v>
-      </c>
-      <c t="s" r="B58" s="7">
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+      <c t="s" r="I58" s="15">
         <v>87</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c t="s" r="H58" s="8">
-        <v>81</v>
-      </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9">
-        <v>27</v>
-      </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="K59" s="11">
-        <v>3227.0300000000002</v>
-      </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="12">
-        <v>88</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c t="s" r="F60" s="13">
-        <v>89</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
-      <c t="s" r="I60" s="15">
-        <v>90</v>
-      </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="170">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2483,16 +2422,10 @@
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:N58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
